--- a/Automation_AFF/target/test-classes/data/User_Data.xlsx
+++ b/Automation_AFF/target/test-classes/data/User_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zalo\DATN\Automation_AFF\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC382F-6364-470A-A31B-4A2F197ADE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09CB51-42AE-448E-BEBC-9072B3A64323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="-120" windowWidth="28590" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="-120" windowWidth="28590" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1430,28 +1430,13 @@
     <t>Two</t>
   </si>
   <si>
-    <t>honivy0702229859@gmail.com</t>
-  </si>
-  <si>
-    <t>adminmaster1</t>
-  </si>
-  <si>
-    <t>Mật khẩu đã thay đổi. Hãy đăng nhập lại</t>
+    <t>5,000,000</t>
+  </si>
+  <si>
+    <t>Sữa hạt tươi</t>
   </si>
   <si>
     <t>Honivy</t>
-  </si>
-  <si>
-    <t>http://localhost:4200</t>
-  </si>
-  <si>
-    <t>Nhập hợp lệ</t>
-  </si>
-  <si>
-    <t>5,000,000</t>
-  </si>
-  <si>
-    <t>Sữa hạt tươi</t>
   </si>
   <si>
     <t>http://localhost:4200/cart</t>
@@ -1781,6 +1766,12 @@
     <t>PassOld</t>
   </si>
   <si>
+    <t>honivy0702229859@gmail.com</t>
+  </si>
+  <si>
+    <t>adminmaster1</t>
+  </si>
+  <si>
     <t>Vui lòng nhập mật khẩu cũ</t>
   </si>
   <si>
@@ -1823,6 +1814,15 @@
     <t>Nhập khoảng trắng mật khẩu mới</t>
   </si>
   <si>
+    <t>Mật khẩu đã thay đổi. Hãy đăng nhập lại</t>
+  </si>
+  <si>
+    <t>http://localhost:4200</t>
+  </si>
+  <si>
+    <t>Nhập hợp lệ</t>
+  </si>
+  <si>
     <t>Search</t>
   </si>
   <si>
@@ -2219,6 +2219,9 @@
     <t>Đăng nhập thành công</t>
   </si>
   <si>
+    <t>Tài khoản - mật khẩu hợp lệ</t>
+  </si>
+  <si>
     <t xml:space="preserve">              </t>
   </si>
   <si>
@@ -2250,9 +2253,6 @@
   </si>
   <si>
     <t>Nhập mật khẩu sai</t>
-  </si>
-  <si>
-    <t>Tài khoản - mật khẩu hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -2286,15 +2286,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -2311,26 +2311,30 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2382,10 +2386,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2429,22 +2434,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2454,20 +2456,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2481,39 +2501,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2817,330 +2810,325 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="23" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="G13" s="23" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>711</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34" t="s">
-        <v>673</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>713</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>713</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AFBCF71F-B985-406E-9C6C-F86CC9572C28}"/>
+    <hyperlink ref="E3:E13" r:id="rId2" display="http://localhost:4200/" xr:uid="{E42D80D3-4B18-425A-8AB7-70AE13DB254E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3151,9 +3139,7 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:Q16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3162,7 +3148,6 @@
     <col min="6" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,7 +3219,7 @@
     <row r="18" spans="11:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="11:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="11:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="11:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="11:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3243,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3351,7 +3336,7 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="14:16" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>12</v>
       </c>
       <c r="O13" s="15"/>
@@ -3778,10 +3763,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="7"/>
       <c r="O15" s="8">
         <v>1</v>
@@ -3807,12 +3792,12 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="7"/>
       <c r="O16" s="8">
         <v>50</v>
@@ -3833,12 +3818,12 @@
         <v>18</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="7"/>
       <c r="O17" s="8">
         <v>51</v>
@@ -3862,12 +3847,12 @@
         <v>24</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="7"/>
       <c r="O18" s="8">
         <v>52</v>
@@ -3885,12 +3870,12 @@
         <v>28</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="7"/>
       <c r="O19" s="8">
         <v>53</v>
@@ -3939,12 +3924,12 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="I22" s="6"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -3963,12 +3948,12 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="5" t="s">
         <v>41</v>
       </c>
@@ -3986,12 +3971,12 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="I24" s="6"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -4010,12 +3995,12 @@
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="I25" s="6"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4034,12 +4019,12 @@
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
       <c r="I26" s="6"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -4058,17 +4043,17 @@
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="7"/>
       <c r="O27" s="8">
         <v>61</v>
@@ -4082,17 +4067,17 @@
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
       <c r="N28" s="9"/>
       <c r="O28" s="8">
         <v>62</v>
@@ -4107,10 +4092,10 @@
     </row>
     <row r="29" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="6"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
       <c r="N29" s="9"/>
       <c r="O29" s="8">
         <v>63</v>
@@ -4125,10 +4110,10 @@
     </row>
     <row r="30" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="6"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="9"/>
       <c r="O30" s="8">
         <v>64</v>
@@ -4143,10 +4128,10 @@
     </row>
     <row r="31" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="6"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
       <c r="N31" s="9"/>
       <c r="O31" s="8">
         <v>65</v>
@@ -4161,10 +4146,10 @@
     </row>
     <row r="32" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="6"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="9"/>
       <c r="O32" s="8">
         <v>66</v>
@@ -4179,10 +4164,10 @@
     </row>
     <row r="33" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="6"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
       <c r="N33" s="9"/>
       <c r="O33" s="8">
         <v>67</v>
@@ -4197,10 +4182,10 @@
     </row>
     <row r="34" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="6"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="9"/>
       <c r="O34" s="8">
         <v>68</v>
@@ -4215,10 +4200,10 @@
     </row>
     <row r="35" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="6"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
       <c r="N35" s="9"/>
       <c r="O35" s="8">
         <v>69</v>
@@ -4233,10 +4218,10 @@
     </row>
     <row r="36" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="6"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
       <c r="N36" s="9"/>
       <c r="O36" s="8">
         <v>70</v>
@@ -4254,10 +4239,10 @@
         <v>75</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
       <c r="N37" s="9"/>
       <c r="O37" s="8">
         <v>71</v>
@@ -4272,10 +4257,10 @@
     </row>
     <row r="38" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="6"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>72</v>
@@ -4290,10 +4275,10 @@
     </row>
     <row r="39" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="6"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="9"/>
       <c r="O39" s="8">
         <v>73</v>
@@ -4308,10 +4293,10 @@
     </row>
     <row r="40" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="6"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="7"/>
       <c r="O40" s="8">
         <v>74</v>
@@ -4326,10 +4311,10 @@
     </row>
     <row r="41" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="6"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="7"/>
       <c r="O41" s="8">
         <v>75</v>
@@ -4344,12 +4329,12 @@
     </row>
     <row r="42" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="6"/>
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="9"/>
       <c r="O42" s="8">
         <v>76</v>
@@ -4363,13 +4348,13 @@
       <c r="R42" s="6"/>
     </row>
     <row r="43" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I43" s="32"/>
-      <c r="J43" s="29" t="s">
+      <c r="I43" s="37"/>
+      <c r="J43" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
       <c r="N43" s="9"/>
       <c r="O43" s="8">
         <v>77</v>
@@ -4383,13 +4368,13 @@
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="30"/>
-      <c r="J44" s="29" t="s">
+      <c r="I44" s="35"/>
+      <c r="J44" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="9"/>
       <c r="O44" s="8">
         <v>78</v>
@@ -4403,13 +4388,13 @@
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="30"/>
-      <c r="J45" s="29" t="s">
+      <c r="I45" s="35"/>
+      <c r="J45" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
       <c r="N45" s="9"/>
       <c r="O45" s="8">
         <v>79</v>
@@ -4423,13 +4408,13 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="30"/>
-      <c r="J46" s="29" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="9"/>
       <c r="O46" s="8">
         <v>80</v>
@@ -4443,13 +4428,13 @@
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I47" s="30"/>
-      <c r="J47" s="29" t="s">
+      <c r="I47" s="35"/>
+      <c r="J47" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
       <c r="N47" s="9"/>
       <c r="O47" s="8">
         <v>81</v>
@@ -4463,13 +4448,13 @@
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="30"/>
-      <c r="J48" s="29" t="s">
+      <c r="I48" s="35"/>
+      <c r="J48" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
       <c r="N48" s="9"/>
       <c r="O48" s="8">
         <v>82</v>
@@ -4483,11 +4468,11 @@
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="9"/>
       <c r="O49" s="8">
         <v>83</v>
@@ -4501,11 +4486,11 @@
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="9"/>
       <c r="O50" s="8">
         <v>84</v>
@@ -4519,11 +4504,11 @@
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="9"/>
       <c r="O51" s="8">
         <v>85</v>
@@ -4537,11 +4522,11 @@
       <c r="R51" s="6"/>
     </row>
     <row r="52" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="9"/>
       <c r="O52" s="8">
         <v>86</v>
@@ -4556,10 +4541,10 @@
     </row>
     <row r="53" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I53" s="6"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="7"/>
       <c r="O53" s="8">
         <v>87</v>
@@ -4574,10 +4559,10 @@
     </row>
     <row r="54" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I54" s="6"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="7"/>
       <c r="O54" s="8">
         <v>88</v>
@@ -4592,10 +4577,10 @@
     </row>
     <row r="55" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I55" s="6"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="7"/>
       <c r="O55" s="8">
         <v>89</v>
@@ -4610,10 +4595,10 @@
     </row>
     <row r="56" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="7"/>
       <c r="O56" s="8">
         <v>90</v>
@@ -4628,10 +4613,10 @@
     </row>
     <row r="57" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" s="6"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="7"/>
       <c r="O57" s="8">
         <v>91</v>
@@ -4646,10 +4631,10 @@
     </row>
     <row r="58" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58" s="6"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="7"/>
       <c r="O58" s="8">
         <v>92</v>
@@ -4664,10 +4649,10 @@
     </row>
     <row r="59" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I59" s="6"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="7"/>
       <c r="O59" s="8">
         <v>93</v>
@@ -4682,10 +4667,10 @@
     </row>
     <row r="60" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="6"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="7"/>
       <c r="O60" s="8">
         <v>94</v>
@@ -4700,10 +4685,10 @@
     </row>
     <row r="61" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" s="6"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
       <c r="N61" s="7"/>
       <c r="O61" s="8">
         <v>95</v>
@@ -4718,10 +4703,10 @@
     </row>
     <row r="62" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I62" s="6"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="7"/>
       <c r="O62" s="8">
         <v>96</v>
@@ -4736,10 +4721,10 @@
     </row>
     <row r="63" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I63" s="6"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="7"/>
       <c r="O63" s="8">
         <v>97</v>
@@ -4754,10 +4739,10 @@
     </row>
     <row r="64" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I64" s="6"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="7"/>
       <c r="O64" s="8">
         <v>98</v>
@@ -4772,10 +4757,10 @@
     </row>
     <row r="65" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I65" s="6"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="7"/>
       <c r="O65" s="8">
         <v>99</v>
@@ -4790,10 +4775,10 @@
     </row>
     <row r="66" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I66" s="6"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="7"/>
       <c r="O66" s="8">
         <v>100</v>
@@ -4808,10 +4793,10 @@
     </row>
     <row r="67" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I67" s="6"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
       <c r="N67" s="7"/>
       <c r="O67" s="8">
         <v>101</v>
@@ -4826,10 +4811,10 @@
     </row>
     <row r="68" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I68" s="6"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="7"/>
       <c r="O68" s="8">
         <v>102</v>
@@ -4844,10 +4829,10 @@
     </row>
     <row r="69" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I69" s="6"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
       <c r="N69" s="7"/>
       <c r="O69" s="8">
         <v>103</v>
@@ -4862,10 +4847,10 @@
     </row>
     <row r="70" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I70" s="6"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
       <c r="N70" s="7"/>
       <c r="O70" s="8">
         <v>104</v>
@@ -4880,10 +4865,10 @@
     </row>
     <row r="71" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="6"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
       <c r="N71" s="7"/>
       <c r="O71" s="8">
         <v>105</v>
@@ -4898,10 +4883,10 @@
     </row>
     <row r="72" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I72" s="6"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="7"/>
       <c r="O72" s="8">
         <v>106</v>
@@ -4916,10 +4901,10 @@
     </row>
     <row r="73" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I73" s="6"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="7"/>
       <c r="O73" s="8">
         <v>107</v>
@@ -4934,10 +4919,10 @@
     </row>
     <row r="74" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" s="6"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
       <c r="N74" s="7"/>
       <c r="O74" s="8">
         <v>108</v>
@@ -4952,10 +4937,10 @@
     </row>
     <row r="75" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I75" s="6"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="7"/>
       <c r="O75" s="8">
         <v>109</v>
@@ -4970,10 +4955,10 @@
     </row>
     <row r="76" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I76" s="6"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
       <c r="N76" s="7"/>
       <c r="O76" s="8">
         <v>110</v>
@@ -4988,10 +4973,10 @@
     </row>
     <row r="77" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I77" s="6"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
       <c r="N77" s="7"/>
       <c r="O77" s="8">
         <v>111</v>
@@ -5006,10 +4991,10 @@
     </row>
     <row r="78" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I78" s="6"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
       <c r="N78" s="7"/>
       <c r="O78" s="8">
         <v>112</v>
@@ -5024,10 +5009,10 @@
     </row>
     <row r="79" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I79" s="6"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="7"/>
       <c r="O79" s="8">
         <v>113</v>
@@ -5042,10 +5027,10 @@
     </row>
     <row r="80" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I80" s="6"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="7"/>
       <c r="O80" s="8">
         <v>114</v>
@@ -5060,10 +5045,10 @@
     </row>
     <row r="81" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I81" s="6"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
       <c r="N81" s="7"/>
       <c r="O81" s="8">
         <v>115</v>
@@ -5078,10 +5063,10 @@
     </row>
     <row r="82" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="6"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="7"/>
       <c r="O82" s="8">
         <v>116</v>
@@ -5096,10 +5081,10 @@
     </row>
     <row r="83" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I83" s="6"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="7"/>
       <c r="O83" s="8">
         <v>117</v>
@@ -5114,10 +5099,10 @@
     </row>
     <row r="84" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I84" s="6"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
       <c r="N84" s="7"/>
       <c r="O84" s="8">
         <v>118</v>
@@ -5132,10 +5117,10 @@
     </row>
     <row r="85" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I85" s="6"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
       <c r="N85" s="7"/>
       <c r="O85" s="8">
         <v>119</v>
@@ -5150,10 +5135,10 @@
     </row>
     <row r="86" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I86" s="6"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
       <c r="N86" s="7"/>
       <c r="O86" s="8">
         <v>120</v>
@@ -5168,10 +5153,10 @@
     </row>
     <row r="87" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I87" s="6"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
       <c r="N87" s="7"/>
       <c r="O87" s="8">
         <v>121</v>
@@ -5186,10 +5171,10 @@
     </row>
     <row r="88" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I88" s="6"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
       <c r="N88" s="7"/>
       <c r="O88" s="8">
         <v>122</v>
@@ -5204,10 +5189,10 @@
     </row>
     <row r="89" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I89" s="6"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
       <c r="N89" s="7"/>
       <c r="O89" s="8">
         <v>123</v>
@@ -5222,10 +5207,10 @@
     </row>
     <row r="90" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I90" s="6"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
       <c r="N90" s="7"/>
       <c r="O90" s="8">
         <v>124</v>
@@ -5240,10 +5225,10 @@
     </row>
     <row r="91" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="6"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
       <c r="N91" s="7"/>
       <c r="O91" s="8">
         <v>125</v>
@@ -5258,10 +5243,10 @@
     </row>
     <row r="92" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="6"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
       <c r="N92" s="7"/>
       <c r="O92" s="8">
         <v>126</v>
@@ -5276,10 +5261,10 @@
     </row>
     <row r="93" spans="9:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="6"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
       <c r="N93" s="7"/>
       <c r="O93" s="8">
         <v>127</v>
@@ -7564,16 +7549,14 @@
   </sheetPr>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
@@ -7592,1213 +7575,1213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="M1" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="N1" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="O1" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="P2" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T2" s="32"/>
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="D3" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q3" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="S2" s="33" t="s">
+      <c r="R3" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>606</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="D4" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="P3" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="C7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R3" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="S3" s="33" t="s">
+      <c r="R7" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="S7" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="T3" s="38"/>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="D8" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="P4" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q4" s="36" t="s">
+      <c r="E13" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q13" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="S4" s="33" t="s">
+      <c r="R13" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="T4" s="38"/>
-    </row>
-    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="D14" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T14" s="32"/>
+    </row>
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T15" s="32"/>
+    </row>
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="P5" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q5" s="36" t="s">
+      <c r="D18" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q18" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R5" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="S5" s="33" t="s">
+      <c r="R18" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="S18" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="T5" s="38"/>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
+      <c r="T18" s="32"/>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T19" s="32"/>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T20" s="32"/>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T22" s="32"/>
+    </row>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T23" s="32"/>
+    </row>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="D24" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T24" s="32"/>
+    </row>
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="T25" s="32"/>
+    </row>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q6" s="36" t="s">
+      <c r="F26" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q26" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R6" s="34" t="s">
-        <v>619</v>
-      </c>
-      <c r="S6" s="33" t="s">
+      <c r="R26" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="S26" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="T26" s="32"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>620</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="D27" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q7" s="36" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q27" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R7" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="R27" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q8" s="36" t="s">
+      <c r="F28" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q28" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="R8" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T8" s="38"/>
-    </row>
-    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T9" s="38"/>
-    </row>
-    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>628</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T11" s="38"/>
-    </row>
-    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>635</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T12" s="38"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T13" s="38"/>
-    </row>
-    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T14" s="38"/>
-    </row>
-    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T15" s="38"/>
-    </row>
-    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="P16" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R16" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T16" s="38"/>
-    </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T17" s="38"/>
-    </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="S18" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T18" s="38"/>
-    </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>655</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T19" s="38"/>
-    </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>658</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T20" s="38"/>
-    </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T21" s="38"/>
-    </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="S22" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T22" s="38"/>
-    </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="S23" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T23" s="38"/>
-    </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33" t="s">
-        <v>673</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T24" s="38"/>
-    </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T25" s="38"/>
-    </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="T26" s="38"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>686</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33" t="s">
-        <v>687</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>688</v>
-      </c>
-      <c r="S27" s="33" t="s">
+      <c r="R28" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="S28" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="T27" s="33" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>691</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>692</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="N28" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>687</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="S28" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="T28" s="33" t="s">
+      <c r="T28" s="23" t="s">
         <v>702</v>
       </c>
     </row>
@@ -8814,482 +8797,479 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="A2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="28">
         <v>1000000</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9301,230 +9281,225 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="H2" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="28">
+        <v>123</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="D3" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="E3" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H3" s="23" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="39">
-        <v>123</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D4" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E4" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H4" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E5" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="H5" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H6" s="23" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="39" t="s">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C7" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
-        <v>544</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="C8" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="E8" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="G8" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="23" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9540,9 +9515,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9560,10 +9533,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>455</v>
@@ -9582,262 +9555,262 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="D3" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="D4" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="H4" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="D5" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H5" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="D6" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="D3" s="27" t="s">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="H7" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H8" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="D4" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G4" s="24" t="s">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="E9" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="D5" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G5" s="24" t="s">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="G10" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="D6" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" s="24" t="s">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" s="24" t="s">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="H8" s="24" t="s">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="H9" s="24" t="s">
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="I14" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="E15" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="I15" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9853,255 +9826,252 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="H1" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="I1" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="J1" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="K1" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="L2" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="N2" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="O2" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="L3" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="O3" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="L4" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="L5" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33" t="s">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="B6" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="K6" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="O6" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="D7" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="O5" s="33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="E7" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="F7" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="N6" s="33" t="s">
+      <c r="G7" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="O6" s="33" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="H7" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="I7" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="J7" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="K7" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="23" t="s">
         <v>437</v>
       </c>
     </row>
@@ -10151,16 +10121,16 @@
     </row>
     <row r="2" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>439</v>
@@ -10171,16 +10141,16 @@
     </row>
     <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>439</v>
@@ -10191,22 +10161,22 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>437</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -10226,7 +10196,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -10242,10 +10212,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>482</v>
+        <v>476</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>477</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>454</v>
@@ -10272,25 +10242,25 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B2" s="22">
+        <v>464</v>
+      </c>
+      <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -10301,23 +10271,23 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -10329,31 +10299,31 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" s="22">
+        <v>481</v>
+      </c>
+      <c r="B4" s="21">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -10400,8 +10370,8 @@
     <row r="42" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N44" s="20" t="s">
-        <v>488</v>
+      <c r="N44" s="19" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10409,17 +10379,17 @@
     </row>
     <row r="46" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N46" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N47" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N48" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10476,19 +10446,19 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -10497,24 +10467,24 @@
         <v>460</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -10523,33 +10493,33 @@
         <v>462</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>439</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/Automation_AFF/target/test-classes/data/User_Data.xlsx
+++ b/Automation_AFF/target/test-classes/data/User_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Login"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="728">
   <si>
     <t>1 Account dùng để test quên mật khẩu thành công</t>
   </si>
@@ -1440,39 +1440,42 @@
     <t>Two</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Quanlity</t>
   </si>
   <si>
     <t>5,000,000</t>
   </si>
   <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Honivy</t>
+  </si>
+  <si>
+    <t>http://localhost:4200/cart</t>
+  </si>
+  <si>
+    <t>Tăng số lượng</t>
+  </si>
+  <si>
+    <t>Khi code thêm sữa hạt tươi 1 lần rồi tăng số lượng lên 5 trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>3,000,000</t>
+  </si>
+  <si>
+    <t>Giảm số lượng</t>
+  </si>
+  <si>
+    <t>Khi code thêm 5 lần rồi giảm về 3</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
     <t>Sữa hạt tươi</t>
   </si>
   <si>
-    <t>Honivy</t>
-  </si>
-  <si>
-    <t>http://localhost:4200/cart</t>
-  </si>
-  <si>
-    <t>Tăng số lượng</t>
-  </si>
-  <si>
-    <t>Khi code thêm sữa hạt tươi 1 lần rồi tăng số lượng lên 5 trong giỏ hàng</t>
-  </si>
-  <si>
-    <t>3,000,000</t>
-  </si>
-  <si>
-    <t>Giảm số lượng</t>
-  </si>
-  <si>
-    <t>Khi code thêm 5 lần rồi giảm về 3</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
     <t>Giảm số lượng xem có về 0 được không</t>
   </si>
   <si>
@@ -1483,12 +1486,6 @@
   </si>
   <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Quanlity</t>
-  </si>
-  <si>
-    <t>Tổng</t>
   </si>
   <si>
     <t>Thêm 1 sản phẩm vào giỏ hàng</t>
@@ -2423,10 +2420,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2438,7 +2435,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2775,7 +2772,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>460</v>
@@ -2801,16 +2798,16 @@
         <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>442</v>
@@ -2822,16 +2819,16 @@
         <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>444</v>
@@ -2839,22 +2836,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>444</v>
@@ -2862,22 +2859,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>444</v>
@@ -2885,22 +2882,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>444</v>
@@ -2908,22 +2905,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>444</v>
@@ -2931,22 +2928,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>444</v>
@@ -2954,22 +2951,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>444</v>
@@ -2977,22 +2974,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>444</v>
@@ -3004,16 +3001,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>444</v>
@@ -3024,19 +3021,19 @@
         <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>444</v>
@@ -3047,19 +3044,19 @@
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>444</v>
@@ -10329,43 +10326,43 @@
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>460</v>
@@ -10383,23 +10380,23 @@
         <v>440</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>616</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -10411,16 +10408,16 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>444</v>
@@ -10430,19 +10427,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -10454,16 +10451,16 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>444</v>
@@ -10473,19 +10470,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -10497,16 +10494,16 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>444</v>
@@ -10516,19 +10513,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -10540,16 +10537,16 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>444</v>
@@ -10559,17 +10556,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -10581,16 +10578,16 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>444</v>
@@ -10600,19 +10597,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -10624,16 +10621,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>444</v>
@@ -10643,19 +10640,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10667,16 +10664,16 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>444</v>
@@ -10686,19 +10683,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -10710,16 +10707,16 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q9" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>444</v>
@@ -10729,19 +10726,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -10753,16 +10750,16 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>444</v>
@@ -10772,19 +10769,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -10796,16 +10793,16 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>444</v>
@@ -10815,17 +10812,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>647</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -10837,16 +10834,16 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>444</v>
@@ -10856,19 +10853,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10880,16 +10877,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>444</v>
@@ -10899,19 +10896,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -10923,16 +10920,16 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>444</v>
@@ -10942,19 +10939,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -10966,16 +10963,16 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>444</v>
@@ -10985,19 +10982,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -11009,16 +11006,16 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q16" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>444</v>
@@ -11028,17 +11025,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -11050,16 +11047,16 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>444</v>
@@ -11069,19 +11066,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>664</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -11093,16 +11090,16 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>444</v>
@@ -11112,19 +11109,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>668</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -11136,16 +11133,16 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>444</v>
@@ -11155,19 +11152,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>671</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -11179,16 +11176,16 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>444</v>
@@ -11198,19 +11195,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>675</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -11222,16 +11219,16 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>444</v>
@@ -11241,19 +11238,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>678</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -11265,16 +11262,16 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>444</v>
@@ -11284,19 +11281,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>681</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -11308,16 +11305,16 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>444</v>
@@ -11327,16 +11324,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -11349,16 +11346,16 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>444</v>
@@ -11368,19 +11365,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -11392,16 +11389,16 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>444</v>
@@ -11411,22 +11408,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -11437,16 +11434,16 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>444</v>
@@ -11456,19 +11453,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -11480,85 +11477,85 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>442</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U27" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>712</v>
-      </c>
       <c r="O28" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>442</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U28" s="24"/>
     </row>
@@ -11603,7 +11600,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>460</v>
@@ -11638,19 +11635,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>442</v>
@@ -11674,16 +11671,16 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="33"/>
       <c r="B3" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>442</v>
@@ -11706,19 +11703,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>595</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>442</v>
@@ -11741,19 +11738,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>444</v>
@@ -11776,19 +11773,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>442</v>
@@ -11811,19 +11808,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>442</v>
@@ -11849,16 +11846,16 @@
         <v>1000000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>444</v>
@@ -11881,19 +11878,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>444</v>
@@ -11946,10 +11943,10 @@
         <v>28</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>460</v>
@@ -11974,19 +11971,19 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>444</v>
@@ -12001,19 +11998,19 @@
         <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>444</v>
@@ -12025,22 +12022,22 @@
         <v>15</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>444</v>
@@ -12058,16 +12055,16 @@
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>444</v>
@@ -12083,16 +12080,16 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>444</v>
@@ -12107,19 +12104,19 @@
         <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>444</v>
@@ -12134,19 +12131,19 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>442</v>
@@ -12185,10 +12182,10 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>460</v>
@@ -12206,28 +12203,28 @@
         <v>440</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>444</v>
@@ -12236,25 +12233,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>444</v>
@@ -12263,25 +12260,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>444</v>
@@ -12290,25 +12287,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>444</v>
@@ -12317,25 +12314,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>444</v>
@@ -12344,25 +12341,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>444</v>
@@ -12371,25 +12368,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>444</v>
@@ -12402,19 +12399,19 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>444</v>
@@ -12426,22 +12423,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>444</v>
@@ -12453,22 +12450,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>444</v>
@@ -12480,20 +12477,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>444</v>
@@ -12505,22 +12502,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>444</v>
@@ -12532,28 +12529,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>444</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -12561,28 +12558,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>444</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -12590,28 +12587,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>442</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -12652,31 +12649,31 @@
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>460</v>
@@ -12697,7 +12694,7 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12708,16 +12705,16 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>444</v>
@@ -12725,10 +12722,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -12739,16 +12736,16 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>444</v>
@@ -12756,7 +12753,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -12768,16 +12765,16 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>444</v>
@@ -12785,10 +12782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -12799,16 +12796,16 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>444</v>
@@ -12816,10 +12813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12830,16 +12827,16 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>442</v>
@@ -12847,46 +12844,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>528</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>471</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>442</v>
@@ -12938,7 +12935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>471</v>
@@ -12947,7 +12944,7 @@
         <v>472</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>444</v>
@@ -12958,7 +12955,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>471</v>
@@ -12967,7 +12964,7 @@
         <v>472</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>444</v>
@@ -12978,22 +12975,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>471</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>442</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -13008,7 +13005,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13025,10 +13022,10 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>459</v>
@@ -13054,7 +13051,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -13063,7 +13060,7 @@
         <v>478</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>471</v>
@@ -13072,7 +13069,7 @@
         <v>472</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -13090,7 +13087,7 @@
         <v>475</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>471</v>
@@ -13099,7 +13096,7 @@
         <v>472</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -13110,7 +13107,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="34">
         <v>5</v>
@@ -13119,7 +13116,7 @@
         <v>469</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>471</v>
@@ -13128,13 +13125,13 @@
         <v>472</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -13149,13 +13146,13 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="32" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="20" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="20" width="21.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="20" width="35.43357142857143" customWidth="1" bestFit="1"/>
@@ -13164,7 +13161,7 @@
     <col min="9" max="9" style="20" width="61.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="30" t="s">
         <v>468</v>
       </c>
@@ -13191,7 +13188,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="31">
         <v>5</v>
       </c>
@@ -13220,7 +13217,7 @@
         <v>474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -13249,7 +13246,7 @@
         <v>477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -13257,7 +13254,7 @@
         <v>478</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>471</v>
@@ -13266,16 +13263,16 @@
         <v>472</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>444</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
